--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3159991.226644115</v>
+        <v>3157447.417137031</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8315827.336524692</v>
+        <v>8315827.336524691</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>225.1346772411287</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>194.8702723308013</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482955</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>18.14576679396754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>260.2363572824535</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>259.632696771575</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.26234557100804</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.317049263441</v>
+        <v>77.09393081742186</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.833369608582263</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>115.4465551725168</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>219.1455308645046</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288424</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256365</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6981910140067</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>107.4985065573542</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784702</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.5212963318321</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>254.4710728434501</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223672</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784711</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8784673763403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.93222849083776</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,16 +2795,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417129</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428216</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127974</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>412.7875053134357</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>399.8236925399913</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127974</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
@@ -4419,10 +4419,10 @@
         <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0168610860233</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.42616776776447</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>39.42616776776447</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>39.42616776776447</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.42616776776447</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.6107264999563</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C5" t="n">
-        <v>690.2330699327782</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656002</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
         <v>150.5322560492186</v>
@@ -4574,13 +4574,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y5" t="n">
-        <v>956.6107264999563</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
         <v>21.0971104001205</v>
@@ -4644,52 +4644,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810725</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528709</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473381</v>
+        <v>273.4227970725827</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823842</v>
+        <v>273.4227970725827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9558888922519</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>30.01970596434501</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
         <v>21.0971104001205</v>
@@ -4729,7 +4729,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640391</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640391</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640391</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>829.3864837640391</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>601.3969328660218</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6043537224916</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2173.962920278654</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="C8" t="n">
-        <v>1805.000403338242</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="D8" t="n">
-        <v>1446.734704731492</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="E8" t="n">
-        <v>1060.946452133248</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="F8" t="n">
-        <v>649.9605473436402</v>
+        <v>366.9512895589262</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2543253353074</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685545</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685545</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045901</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209578</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.90571894059</v>
+        <v>2053.905718940588</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550189</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661157</v>
+        <v>2540.564622661153</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342772</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342772</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342776</v>
+        <v>2351.810676439045</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342776</v>
+        <v>2098.229497964615</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342776</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342776</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342776</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>2560.562760342776</v>
+        <v>760.4966303722515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010668</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199398</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586886</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532331</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685545</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507231</v>
+        <v>238.3188829507228</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018219</v>
+        <v>422.9158793018212</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353025</v>
+        <v>1056.655162486657</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209603</v>
+        <v>1419.721630960958</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682171</v>
+        <v>1806.806033433525</v>
       </c>
       <c r="O9" t="n">
-        <v>2101.342016867009</v>
+        <v>2138.692843420914</v>
       </c>
       <c r="P9" t="n">
-        <v>2348.377375296633</v>
+        <v>2421.055229888871</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442619</v>
+        <v>2536.272628442615</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342776</v>
+        <v>2560.562760342772</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251687</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685336</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751566</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519823</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791622</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586089</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821135</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685553</v>
+        <v>476.1390772876027</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685553</v>
+        <v>307.2028943596958</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685545</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380118</v>
+        <v>76.63468308380095</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676557</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336891</v>
+        <v>523.3850043368902</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904022</v>
+        <v>823.8653899904011</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931087</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412616</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412616</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.861881826848</v>
+        <v>1310.174753887021</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.74350832149</v>
+        <v>1021.056380381663</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0590201156033</v>
+        <v>766.371892175776</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6418500786426</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806253</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370952</v>
+        <v>657.7875421178425</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,31 +5054,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6026,13 +6026,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576781</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273905</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438171</v>
@@ -6841,19 +6841,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>198.0274703142544</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192269</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111683</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,43 +7236,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,28 +7433,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349512</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594348</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084404</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782308</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.68386670538808</v>
       </c>
       <c r="Q9" t="n">
-        <v>73.41197433559753</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143918</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>31.713401545794</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.3624843553861</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>62.35543909864911</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219417</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714792.4902389278</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
@@ -26335,25 +26335,25 @@
         <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287559</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580759</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606948</v>
+        <v>507909.2320606965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027078e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.578120375819352e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101722</v>
+        <v>95270.23779101696</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662843</v>
+        <v>136854.4547662846</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756483</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756468</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675651</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756694</v>
+        <v>9337.200356756572</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567876</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273267.5018507578</v>
+        <v>-273267.5018507583</v>
       </c>
       <c r="C6" t="n">
         <v>406820.478740435</v>
       </c>
       <c r="D6" t="n">
-        <v>97974.21863120786</v>
+        <v>97974.21863120874</v>
       </c>
       <c r="E6" t="n">
-        <v>87884.31248739657</v>
+        <v>87849.57456195941</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480918</v>
+        <v>595758.8066226559</v>
       </c>
       <c r="G6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="H6" t="n">
-        <v>595793.5445480921</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="I6" t="n">
-        <v>595793.5445480919</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="J6" t="n">
-        <v>526794.3901289774</v>
+        <v>526759.6522035426</v>
       </c>
       <c r="K6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226561</v>
       </c>
       <c r="L6" t="n">
-        <v>500523.3067570746</v>
+        <v>500488.5688316395</v>
       </c>
       <c r="M6" t="n">
-        <v>463075.5688526221</v>
+        <v>463040.8309271861</v>
       </c>
       <c r="N6" t="n">
-        <v>595793.5445480915</v>
+        <v>595758.8066226558</v>
       </c>
       <c r="O6" t="n">
-        <v>595793.5445480915</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="P6" t="n">
-        <v>595793.5445480924</v>
+        <v>595758.8066226558</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627804</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085694</v>
+        <v>640.1406900856931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.22265046977419e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.647445793302</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>434.2730407788938</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841869</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084188</v>
+        <v>376.4268100841869</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.22265046977419e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841878</v>
+        <v>376.4268100841869</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1382145298789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769304</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27506,25 +27506,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>10.9027128726762</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929008859</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4697062242448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>26.28664105413748</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>105.6401949994326</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>288.9755930850455</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.2161343864263</v>
+        <v>89.43925283244548</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>113.3172039162263</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081363</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>185.5869190477837</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465074</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6067276056303</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164541475</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164537354</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>101.0532974963321</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>179.0244917792368</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.15802671549752e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,19 +28381,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.485841352254167e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.286840195868682e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,16 +28855,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-5.701123350071842e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29509,22 +29509,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1.21177559801675e-12</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,13 +30460,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.478997154632014e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-5.688177271642585e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885546</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546661</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157552</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972524</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763177</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354914</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359921</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525058</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307877</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983006</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542119</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864744</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140448</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508437</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436924</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035135</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502159</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571269</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617153</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.33605801522</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.835446451907</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947579</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463695</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366389</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752555</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415866</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490117</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023118</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462343</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046248</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307394</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658769</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942731</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650309</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>669.5976799347666</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737919</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,19 +33494,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33731,25 +33731,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954394</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,25 +34442,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -34787,13 +34787,13 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456601</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35021,13 +35021,13 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705662</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313372</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655042</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559149</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091009</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430311</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797624</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.2001390723423</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816844</v>
+        <v>188.9976037816842</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758574</v>
+        <v>186.461612475857</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>640.1406900856931</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.733806539697</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318868</v>
       </c>
       <c r="O9" t="n">
-        <v>640.140690085694</v>
+        <v>335.2392020074626</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804282</v>
+        <v>285.2145317858157</v>
       </c>
       <c r="Q9" t="n">
-        <v>189.7931849959458</v>
+        <v>116.381210660348</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783555</v>
+        <v>24.53548676783541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873283</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093278</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641524</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254629</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186645</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>527.4636460127483</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712518</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314005</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.561645212106</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
